--- a/biology/Botanique/Eucalyptus_baueriana/Eucalyptus_baueriana.xlsx
+++ b/biology/Botanique/Eucalyptus_baueriana/Eucalyptus_baueriana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus baueriana, l'eucalyptus à feuilles rondes, est une espèce d'eucalyptus de la famille des Myrtaceae. Il est de taille petite à moyenne (jusqu'à 20 mètres de haut) avec une écorce rugueuse et persistante sur les grosses branches, de couleur gris clair avec souvent des taches blanches.
 Les feuilles adultes sont pétiolées, rondes ou ovales, ondulées de 10 × 7,5 cm, vert pâle et épaisses.
